--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>name</t>
   </si>
@@ -40,112 +40,67 @@
     <t>backflipresource</t>
   </si>
   <si>
-    <t>2進数の動作</t>
-  </si>
-  <si>
-    <t>Sakura_Black</t>
-  </si>
-  <si>
-    <t>YJBlack</t>
-  </si>
-  <si>
-    <t>01001001.png</t>
-  </si>
-  <si>
-    <t>最初に必殺技を出せ</t>
-  </si>
-  <si>
-    <t>BlueEye.png</t>
-  </si>
-  <si>
-    <t>何も考えてない</t>
-  </si>
-  <si>
-    <t>Dari.png</t>
-  </si>
-  <si>
-    <t>ディールメイカー</t>
-  </si>
-  <si>
-    <t>DealMaker.png</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>HP.png</t>
-  </si>
-  <si>
-    <t>怒ってしまう</t>
-  </si>
-  <si>
-    <t>Ikari.png</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R18.png</t>
-  </si>
-  <si>
-    <t>タスクRTA走者</t>
-  </si>
-  <si>
-    <t>RTA.png</t>
-  </si>
-  <si>
-    <t>白桜の花</t>
-  </si>
-  <si>
-    <t>Sakura.png</t>
-  </si>
-  <si>
-    <t>ジト目</t>
-  </si>
-  <si>
-    <t>Jitome.png</t>
-  </si>
-  <si>
-    <t>眠ってしまう</t>
-  </si>
-  <si>
-    <t>Nemuri.png</t>
-  </si>
-  <si>
-    <t>にゅん</t>
-  </si>
-  <si>
-    <t>Nyun.png</t>
-  </si>
-  <si>
-    <t>しょぼん</t>
-  </si>
-  <si>
-    <t>Syobon.png</t>
-  </si>
-  <si>
-    <t>テンションMAX</t>
-  </si>
-  <si>
-    <t>tentionmax.png</t>
-  </si>
-  <si>
-    <t>OKしよう</t>
-  </si>
-  <si>
-    <t>ok.png</t>
-  </si>
-  <si>
-    <t>NOと言わなければ</t>
-  </si>
-  <si>
-    <t>no.png</t>
-  </si>
-  <si>
-    <t>誕生日おめでとう</t>
-  </si>
-  <si>
-    <t>HappyBirthdayToME.png</t>
+    <t>ジェビル</t>
+  </si>
+  <si>
+    <t>Sakura_White</t>
+  </si>
+  <si>
+    <t>YJWhite</t>
+  </si>
+  <si>
+    <t>Jevil.png</t>
+  </si>
+  <si>
+    <t>Jevil_climb.png</t>
+  </si>
+  <si>
+    <t>クルージュース</t>
+  </si>
+  <si>
+    <t>Juice_adaptive.png</t>
+  </si>
+  <si>
+    <t>Juice_adaptive_climb.png</t>
+  </si>
+  <si>
+    <t>削除3秒前</t>
+  </si>
+  <si>
+    <t>gomibako.png</t>
+  </si>
+  <si>
+    <t>gomibako_climb.png</t>
+  </si>
+  <si>
+    <t>銀の盾</t>
+  </si>
+  <si>
+    <t>10k_adaptive.png</t>
+  </si>
+  <si>
+    <t>ウボァ</t>
+  </si>
+  <si>
+    <t>uboa.png</t>
+  </si>
+  <si>
+    <t>uboa_climb.png</t>
+  </si>
+  <si>
+    <t>uboa_flip.png</t>
+  </si>
+  <si>
+    <t>YJ</t>
+  </si>
+  <si>
+    <t>YJ_adaptive.png</t>
+  </si>
+  <si>
+    <t>YJ_adaptive_climb.png</t>
+  </si>
+  <si>
+    <t>YJ_adaptive_flip.png</t>
   </si>
 </sst>
 </file>
@@ -154,11 +109,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,10 +126,55 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
@@ -182,60 +182,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,61 +272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,31 +288,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,97 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,31 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,21 +493,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,11 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +549,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,70 +582,70 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -692,82 +654,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1087,13 +1049,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="18.5666666666667" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
@@ -1126,242 +1088,110 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="G7" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
